--- a/corr.xlsx
+++ b/corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>SW</t>
   </si>
@@ -25,10 +25,19 @@
     <t>GR</t>
   </si>
   <si>
+    <t>RHOB</t>
+  </si>
+  <si>
     <t>ILD</t>
   </si>
   <si>
-    <t>RHOB</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -386,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +417,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +441,22 @@
         <v>0.2652092283071843</v>
       </c>
       <c r="E2">
+        <v>0.4816281175868807</v>
+      </c>
+      <c r="F2">
         <v>-0.1320398867309311</v>
       </c>
-      <c r="F2">
-        <v>0.4816281175868807</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>-0.02104659195283259</v>
+      </c>
+      <c r="H2">
+        <v>0.3303383745893685</v>
+      </c>
+      <c r="I2">
+        <v>0.04938237748878115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -443,13 +470,22 @@
         <v>-0.1723451215865146</v>
       </c>
       <c r="E3">
+        <v>-0.4002213710252234</v>
+      </c>
+      <c r="F3">
         <v>0.06155433673081616</v>
       </c>
-      <c r="F3">
-        <v>-0.4002213710252234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.2505588331587533</v>
+      </c>
+      <c r="H3">
+        <v>0.05772204558910494</v>
+      </c>
+      <c r="I3">
+        <v>-0.1139566058725688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,24 +499,33 @@
         <v>1</v>
       </c>
       <c r="E4">
+        <v>0.06976854179993013</v>
+      </c>
+      <c r="F4">
         <v>-0.04862303438278121</v>
       </c>
-      <c r="F4">
-        <v>0.06976854179993013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>-0.01007719579094641</v>
+      </c>
+      <c r="H4">
+        <v>-0.07361317702372128</v>
+      </c>
+      <c r="I4">
+        <v>0.3122934614821321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1320398867309311</v>
+        <v>0.4816281175868807</v>
       </c>
       <c r="C5">
-        <v>0.06155433673081616</v>
+        <v>-0.4002213710252234</v>
       </c>
       <c r="D5">
-        <v>-0.04862303438278121</v>
+        <v>0.06976854179993013</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -488,24 +533,129 @@
       <c r="F5">
         <v>-0.06205329434910759</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>-0.2843325399645965</v>
+      </c>
+      <c r="H5">
+        <v>0.03024144171838998</v>
+      </c>
+      <c r="I5">
+        <v>0.1044582681110861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4816281175868807</v>
+        <v>-0.1320398867309311</v>
       </c>
       <c r="C6">
-        <v>-0.4002213710252234</v>
+        <v>0.06155433673081616</v>
       </c>
       <c r="D6">
-        <v>0.06976854179993013</v>
+        <v>-0.04862303438278121</v>
       </c>
       <c r="E6">
         <v>-0.06205329434910759</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.0553922827035719</v>
+      </c>
+      <c r="H6">
+        <v>-0.01246173694432454</v>
+      </c>
+      <c r="I6">
+        <v>-0.03730941090818933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.02104659195283259</v>
+      </c>
+      <c r="C7">
+        <v>0.2505588331587533</v>
+      </c>
+      <c r="D7">
+        <v>-0.01007719579094641</v>
+      </c>
+      <c r="E7">
+        <v>-0.2843325399645965</v>
+      </c>
+      <c r="F7">
+        <v>0.0553922827035719</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.6649664360326287</v>
+      </c>
+      <c r="I7">
+        <v>-0.2284501303781981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.3303383745893685</v>
+      </c>
+      <c r="C8">
+        <v>0.05772204558910494</v>
+      </c>
+      <c r="D8">
+        <v>-0.07361317702372128</v>
+      </c>
+      <c r="E8">
+        <v>0.03024144171838998</v>
+      </c>
+      <c r="F8">
+        <v>-0.01246173694432454</v>
+      </c>
+      <c r="G8">
+        <v>0.6649664360326287</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>-0.2037069444317725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.04938237748878115</v>
+      </c>
+      <c r="C9">
+        <v>-0.1139566058725688</v>
+      </c>
+      <c r="D9">
+        <v>0.3122934614821321</v>
+      </c>
+      <c r="E9">
+        <v>0.1044582681110861</v>
+      </c>
+      <c r="F9">
+        <v>-0.03730941090818933</v>
+      </c>
+      <c r="G9">
+        <v>-0.2284501303781981</v>
+      </c>
+      <c r="H9">
+        <v>-0.2037069444317725</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
